--- a/data/trans_orig/P33_MIN_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Provincia-trans_orig.xlsx
@@ -566,7 +566,7 @@
         <v>51.97164771331892</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44.42818746832514</v>
+        <v>44.42818746832513</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>31.63556112905416</v>
+        <v>31.5664462073793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>44.85706315788277</v>
+        <v>44.35003657833425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39.17550534215487</v>
+        <v>38.97288687421563</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45.99574049238212</v>
+        <v>46.68817872619458</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>61.02271501949546</v>
+        <v>60.72372581517138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49.72141900476969</v>
+        <v>49.81851807608574</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>38.58804139072129</v>
+        <v>38.58804139072128</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>37.04669960323807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37.87408314607887</v>
+        <v>37.87408314607888</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>31.79983171399574</v>
+        <v>31.75046344516214</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.29647452305351</v>
+        <v>30.72626377150171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32.86593975397793</v>
+        <v>32.75251737801398</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46.84950276914477</v>
+        <v>47.12522284217248</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>44.4047827522707</v>
+        <v>44.1695455141602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43.50874348583471</v>
+        <v>43.36318033427272</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.97719971005578</v>
+        <v>20.67674161700005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.62498024287324</v>
+        <v>17.51705818382091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21.12997728173686</v>
+        <v>20.96491704647089</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>34.99062771007624</v>
+        <v>34.65937082309973</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>42.81658397400471</v>
+        <v>44.85919495562418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.26117764490387</v>
+        <v>33.58661796899616</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>33.61403176871504</v>
+        <v>33.61403176871503</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>31.78344918169407</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>27.99670752987091</v>
+        <v>27.9541652864804</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>25.1036903038878</v>
+        <v>24.69213572231309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28.28516105364027</v>
+        <v>28.30153092031938</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>40.16546497572542</v>
+        <v>40.64982941020895</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>49.25582009593519</v>
+        <v>48.34244718476102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39.99463142562542</v>
+        <v>39.97205865565766</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>43.37621441489019</v>
+        <v>43.38948894903996</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>35.74382724359052</v>
+        <v>35.56803694313285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42.30879596317651</v>
+        <v>42.28697689590022</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>61.34592689411104</v>
+        <v>61.47202744847196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>51.54609011636135</v>
+        <v>51.23272486016003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54.36363920557994</v>
+        <v>53.93897513796981</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>28.23390201435875</v>
+        <v>28.23390201435876</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>17.16909584386335</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>20.51731637961119</v>
+        <v>20.46819106697009</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.06948097509467</v>
+        <v>10.95491264630943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18.4832434007744</v>
+        <v>18.34565326997621</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>41.60548727253672</v>
+        <v>40.97308327855536</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>28.58249651256671</v>
+        <v>29.47628923226697</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32.85825164056627</v>
+        <v>32.76233003604897</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>29.38315380066963</v>
+        <v>29.38315380066962</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>30.33003301969963</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.18501439597549</v>
+        <v>24.49453404425703</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.61165975030078</v>
+        <v>24.6607858217159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25.96906111841234</v>
+        <v>25.95348841972163</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>34.64432818213114</v>
+        <v>34.80104710941131</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>37.45969683597684</v>
+        <v>36.91685067589387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34.7086393610451</v>
+        <v>34.46872449591006</v>
       </c>
     </row>
     <row r="25">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>53.52566182607927</v>
+        <v>53.52566182607928</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>47.32735695786837</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50.42602810779488</v>
+        <v>50.42602810779489</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>49.52813487351141</v>
+        <v>49.49691417633247</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>44.42353563236097</v>
+        <v>44.67986656718405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48.00033880797656</v>
+        <v>48.1330521081978</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>58.57833275745114</v>
+        <v>59.54343512806116</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>49.89091903884076</v>
+        <v>50.07532512854065</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>53.54306008281758</v>
+        <v>53.51599534963049</v>
       </c>
     </row>
     <row r="28">
@@ -1006,7 +1006,7 @@
         <v>37.51314009119479</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38.00974533433966</v>
+        <v>38.00974533433967</v>
       </c>
     </row>
     <row r="29">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>36.09333210673423</v>
+        <v>36.21181734984225</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>35.10217169719041</v>
+        <v>35.2512306707311</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36.36346386226522</v>
+        <v>36.39900466805397</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>40.74831184964683</v>
+        <v>40.92016884620477</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>40.2034763140684</v>
+        <v>40.12369419331836</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40.09760914575283</v>
+        <v>39.83051729213531</v>
       </c>
     </row>
     <row r="31">
